--- a/docs/odh/obf-NonLaboratoryObservation.xlsx
+++ b/docs/odh/obf-NonLaboratoryObservation.xlsx
@@ -395,7 +395,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationAdministration|http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement|http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure)
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Group|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DomainResource)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -619,7 +619,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -739,7 +739,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SampledData}timedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -839,7 +839,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1091,7 +1091,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1313,7 +1313,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/odh/obf-NonLaboratoryObservation.xlsx
+++ b/docs/odh/obf-NonLaboratoryObservation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="448">
   <si>
     <t>Path</t>
   </si>
@@ -739,7 +739,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-SampledData}timedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -874,7 +874,10 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -930,41 +933,41 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -973,11 +976,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -1599,7 +1602,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1622,7 +1625,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4773,9 +4776,11 @@
       <c r="W27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="X27" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4811,24 +4816,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4851,13 +4856,13 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4908,7 +4913,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4932,7 +4937,7 @@
         <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4943,7 +4948,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4972,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>103</v>
@@ -5013,19 +5018,19 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5049,7 +5054,7 @@
         <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5060,10 +5065,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
@@ -5085,11 +5090,11 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5140,7 +5145,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5175,10 +5180,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>45</v>
@@ -5200,11 +5205,11 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5255,7 +5260,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5290,10 +5295,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>45</v>
@@ -5315,11 +5320,11 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5370,7 +5375,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5405,7 +5410,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5428,19 +5433,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5489,7 +5494,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5510,10 +5515,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5524,7 +5529,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5547,19 +5552,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5608,7 +5613,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5629,10 +5634,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5643,7 +5648,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5669,16 +5674,16 @@
         <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5706,10 +5711,10 @@
         <v>166</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5727,7 +5732,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5748,10 +5753,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5762,7 +5767,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5785,16 +5790,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5844,7 +5849,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5862,24 +5867,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5902,16 +5907,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5961,7 +5966,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5979,24 +5984,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6019,19 +6024,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6080,7 +6085,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6092,7 +6097,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6101,10 +6106,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6115,7 +6120,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6138,13 +6143,13 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6195,7 +6200,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6219,7 +6224,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6230,7 +6235,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6259,7 +6264,7 @@
         <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>103</v>
@@ -6312,7 +6317,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6336,7 +6341,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6347,11 +6352,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6373,10 +6378,10 @@
         <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>103</v>
@@ -6431,7 +6436,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6466,7 +6471,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6489,13 +6494,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6546,7 +6551,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6555,7 +6560,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
@@ -6567,10 +6572,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6581,7 +6586,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6604,13 +6609,13 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6661,7 +6666,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6670,7 +6675,7 @@
         <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>45</v>
@@ -6682,10 +6687,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6696,7 +6701,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6722,16 +6727,16 @@
         <v>150</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6759,10 +6764,10 @@
         <v>155</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6780,7 +6785,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6798,10 +6803,10 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>260</v>
@@ -6815,7 +6820,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6841,16 +6846,16 @@
         <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6878,10 +6883,10 @@
         <v>155</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6899,7 +6904,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6917,10 +6922,10 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>260</v>
@@ -6934,7 +6939,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6957,17 +6962,17 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7016,7 +7021,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7040,7 +7045,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7051,7 +7056,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7074,13 +7079,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7131,7 +7136,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7152,10 +7157,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7166,7 +7171,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7189,16 +7194,16 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7248,7 +7253,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7269,10 +7274,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7283,7 +7288,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7306,16 +7311,16 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7365,7 +7370,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7386,10 +7391,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7400,7 +7405,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7423,19 +7428,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7484,7 +7489,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7496,7 +7501,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7505,10 +7510,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7519,7 +7524,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7542,13 +7547,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7599,7 +7604,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7623,7 +7628,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7634,7 +7639,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7663,7 +7668,7 @@
         <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>103</v>
@@ -7716,7 +7721,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7740,7 +7745,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7751,11 +7756,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7777,10 +7782,10 @@
         <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>103</v>
@@ -7835,7 +7840,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7870,7 +7875,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7896,13 +7901,13 @@
         <v>150</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>165</v>
@@ -7954,7 +7959,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>55</v>
@@ -7972,7 +7977,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>171</v>
@@ -7989,7 +7994,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8015,13 +8020,13 @@
         <v>231</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>235</v>
@@ -8073,7 +8078,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8091,7 +8096,7 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>238</v>
@@ -8108,7 +8113,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8134,13 +8139,13 @@
         <v>150</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>245</v>
@@ -8192,7 +8197,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8227,7 +8232,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8311,7 +8316,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8346,7 +8351,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8369,19 +8374,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8430,7 +8435,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8451,10 +8456,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8465,7 +8470,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8488,13 +8493,13 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8545,7 +8550,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8569,7 +8574,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8580,7 +8585,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8609,7 +8614,7 @@
         <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>103</v>
@@ -8662,7 +8667,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8686,7 +8691,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8697,11 +8702,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8723,10 +8728,10 @@
         <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>103</v>
@@ -8781,7 +8786,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8816,7 +8821,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8839,13 +8844,13 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8896,7 +8901,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8905,7 +8910,7 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
@@ -8917,10 +8922,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8931,7 +8936,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8954,13 +8959,13 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9011,7 +9016,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9020,7 +9025,7 @@
         <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>45</v>
@@ -9032,10 +9037,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9046,7 +9051,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9072,16 +9077,16 @@
         <v>150</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9109,10 +9114,10 @@
         <v>155</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9130,7 +9135,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9148,10 +9153,10 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>260</v>
@@ -9165,7 +9170,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9191,16 +9196,16 @@
         <v>150</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9228,10 +9233,10 @@
         <v>155</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9249,7 +9254,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9267,10 +9272,10 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>260</v>
@@ -9284,7 +9289,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9307,17 +9312,17 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9366,7 +9371,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9390,7 +9395,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9401,7 +9406,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9424,13 +9429,13 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9481,7 +9486,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9502,10 +9507,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
